--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lepla\OneDrive\Bureau\p4_leplat_Franck-olivier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lepla\OneDrive\Bureau\p4_leplat_Franck-olivier\la_chouette_agence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7685CD91-AC24-45DC-B26F-EABA1969982B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C37B19A-3940-4E18-88F7-E6C2A7FB8FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Catégorie</t>
   </si>
@@ -54,12 +54,6 @@
     <t>SEO</t>
   </si>
   <si>
-    <t xml:space="preserve">balise qui n'est plus utilisé ou très peu  </t>
-  </si>
-  <si>
-    <t>https://fr.semrush.com/blog/meta-keywords-en-seo/</t>
-  </si>
-  <si>
     <t>Balise description non rempli</t>
   </si>
   <si>
@@ -70,10 +64,6 @@
   </si>
   <si>
     <t>https://www.definitions-seo.com/definition-de-balise-meta-description/</t>
-  </si>
-  <si>
-    <t>C'est une balise obligatoire.
- Elle définit la langue de base et indique de quel langue est le reste de la page</t>
   </si>
   <si>
     <t>https://smartkeyword.io/seo-on-page-images-attribut-alt/</t>
@@ -102,13 +92,6 @@
   </si>
   <si>
     <t>Balise méta keywords</t>
-  </si>
-  <si>
-    <t>Considéré par google comme spam
-élément trompeur</t>
-  </si>
-  <si>
-    <t>Ne pas utilisé de méta keywords</t>
   </si>
   <si>
     <t>la balise "description" est importante
@@ -160,11 +143,6 @@
 De plus google peut prétendre a du spam 
 et le fait d'avoir beaucoup de lien ne 
 permet pas un meilleur référencement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas mettre d'annuaires,
-mais il es possible d'avoir quelque liens partenaires
- </t>
   </si>
   <si>
     <t>https://naturedigitale.fr/annuaires-referencement/</t>
@@ -192,108 +170,131 @@
 </t>
   </si>
   <si>
-    <t>ne pas utiliser de texte cachés ou de petites taille.
+    <t>Le titre de la seconde page
+"page 2" n'aide pas le visiteur à se
+repérer.</t>
+  </si>
+  <si>
+    <t>mauvais appelation de la seconde 
+page.</t>
+  </si>
+  <si>
+    <t>https://www.webrankinfo.com/dossiers/strategies-de-liens/format-optimal-des-liens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donner un nom inteligible au liens </t>
+  </si>
+  <si>
+    <t>Les fichiers CSS et Javascript ne sont pas
+minifiés, il alourdissent la page.</t>
+  </si>
+  <si>
+    <t>Cours OpenClassRooms</t>
+  </si>
+  <si>
+    <t>Minifier les fichiers CSS et Javascript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contraste entre la couleur de texte
+et la couleur du fond est faible </t>
+  </si>
+  <si>
+    <t>Un mauvais contrast entre le texte et le fond 
+ne permet pas une bonne lecture</t>
+  </si>
+  <si>
+    <t>Adapter un contraste suffisant entre 
+le fond et le texte</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#colour</t>
+  </si>
+  <si>
+    <t>Le contenue de la propriété ALT
+des images est incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un contenu approprié est destiné à d'ecrire
+ le contenu de l'image et non pas des mots 
+clé pour le référencement  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D'ecrire dans la balise ALT le contenu de l'image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D'ecrire le lien dans la balise aria-label </t>
+  </si>
+  <si>
+    <t>Mozilla - Aria-label</t>
+  </si>
+  <si>
+    <t>Pas de balise aria-label pour les
+logos des réseaux sociaux</t>
+  </si>
+  <si>
+    <t>Liens sans redirection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens des réseaux sociaux
+ne renvois vers aucune desatination
+</t>
+  </si>
+  <si>
+    <t>Mettre les URL de destinations
+ dans les attributs du lien</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/a</t>
+  </si>
+  <si>
+    <t>Contrôler les liens vers les fichiers externe</t>
+  </si>
+  <si>
+    <t>cour OpenClassRooms</t>
+  </si>
+  <si>
+    <t>Une image ne peut pas etre un texte</t>
+  </si>
+  <si>
+    <t>Ne pas mettre de texte sous forme d'une image</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balise qui n'est plus utilisé   </t>
+  </si>
+  <si>
+    <t>Considéré par google comme spam
+élément trompeur elle n'entre plus dans les critére de selection</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/la-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas mettre d'annuaires,
+mais il es possible d'avoir quelques liens partenaires
+ </t>
+  </si>
+  <si>
+    <t>ne pas utiliser de texte caché ou de petites taille.
 Mentionner un lieu qui n'est pas celui ou est basé l'agence
 ne permet pas de monter dans les recherches
 et d'avoir un meilleur référencement.</t>
   </si>
   <si>
-    <t>Pour monter dans les recherches,
-mentionné le lieu ou est basé l'agence 
-cel permettra de faire un meilleur
-référencement local et ainsi monter
-dans les recherches.</t>
-  </si>
-  <si>
-    <t>Le titre de la seconde page
-"page 2" n'aide pas le visiteur à se
-repérer.</t>
-  </si>
-  <si>
-    <t>mauvais appelation de la seconde 
-page.</t>
-  </si>
-  <si>
-    <t>https://www.webrankinfo.com/dossiers/strategies-de-liens/format-optimal-des-liens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donner un nom inteligible au liens </t>
-  </si>
-  <si>
     <t>Les fichiers CSS ET javascript
-ne sot pas optimisés</t>
-  </si>
-  <si>
-    <t>Les fichiers CSS et Javascript ne sont pas
-minifiés, il alourdissent la page.</t>
-  </si>
-  <si>
-    <t>Cours OpenClassRooms</t>
-  </si>
-  <si>
-    <t>Minifier les fichiers CSS et Javascript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contraste entre la couleur de texte
-et la couleur du fond est faible </t>
-  </si>
-  <si>
-    <t>Un mauvais contrast entre le texte et le fond 
-ne permet pas une bonne lecture</t>
-  </si>
-  <si>
-    <t>Adapter un contraste suffisant entre 
-le fond et le texte</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist#colour</t>
-  </si>
-  <si>
-    <t>Le contenue de la propriété ALT
-des images est incorrect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un contenu approprié est destiné à d'ecrire
- le contenu de l'image et non pas des mots 
-clé pour le référencement  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D'ecrire dans la balise ALT le contenu de l'image </t>
+ne sont pas optimisés</t>
   </si>
   <si>
     <t xml:space="preserve">Les icons des réseaux sociaux
 ne contienent pas de texte qui d'ecris 
-le lien vers leqeuls ils pointent
+le lien vers lesquels ils pointent
 </t>
   </si>
   <si>
-    <t xml:space="preserve">D'ecrire le lien dans la balise aria-label </t>
-  </si>
-  <si>
-    <t>Mozilla - Aria-label</t>
-  </si>
-  <si>
-    <t>Pas de balise aria-label pour les
-logos des réseaux sociaux</t>
-  </si>
-  <si>
-    <t>Liens sans redirection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les liens des réseaux sociaux
-ne renvois vers aucune desatination
-</t>
-  </si>
-  <si>
-    <t>Mettre les URL de destinations
- dans les attributs du lien</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/a</t>
-  </si>
-  <si>
     <t>Les feuilles de style et fichiers 
-javascript n esont pas appelés
+javascript ne sont pas appelés
 correctement dans la page 
 "Contact"</t>
   </si>
@@ -301,30 +302,15 @@
     <t xml:space="preserve">Les feuilles de styles et les fichiers
  de la page "Contact"
 sont des versions minifiés de :
-Bootstrap? Font-awesome et et-line, 
+Bootstrap, Font-awesome, et-line et 
 Javascript, 
 seules les versions décompressés sont 
 présente.  </t>
   </si>
   <si>
-    <t>Contrôler les liens vers les fichiers externe</t>
-  </si>
-  <si>
-    <t>cour OpenClassRooms</t>
-  </si>
-  <si>
-    <t>Une image ne peut pas etre un texte</t>
-  </si>
-  <si>
-    <t>Le texte contenue dns une image ne peut etre
+    <t>Le texte contenue dans une image ne peut etre
 lu par le lecteur de page ni par les 
 moteurs de recherches</t>
-  </si>
-  <si>
-    <t>Ne pas mettre de texte sous forme d'une image</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility</t>
   </si>
 </sst>
 </file>
@@ -421,7 +407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -469,6 +455,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:UZ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -746,7 +735,7 @@
     </row>
     <row r="2" spans="1:572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -755,39 +744,39 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:572" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:572" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:572" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,19 +784,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -819,19 +808,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -843,19 +832,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -867,19 +856,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -891,19 +880,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -915,19 +904,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1508,44 +1497,44 @@
       <c r="UY11" s="17"/>
       <c r="UZ11" s="17"/>
     </row>
-    <row r="12" spans="1:572" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:572" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:572" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1554,22 +1543,22 @@
     </row>
     <row r="14" spans="1:572" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1578,22 +1567,22 @@
     </row>
     <row r="15" spans="1:572" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1602,82 +1591,82 @@
     </row>
     <row r="16" spans="1:572" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2667,22 +2656,22 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{B96CED8A-0230-4257-AC88-8666127B475A}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{20D34EB1-A4CA-49B7-AC83-460E8F362092}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{0C8892E4-C7DD-402F-91B9-F3A41206AAE7}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{EAE33832-7AF5-471E-8475-94CA27DDDCE9}"/>
-    <hyperlink ref="F12" r:id="rId5" xr:uid="{19070C6B-134A-41E0-AEB1-93D328F3E482}"/>
-    <hyperlink ref="F13" r:id="rId6" xr:uid="{B91AC4F0-6C0C-452E-8F63-7EBB8ABAB446}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{7F55248D-22F5-4A61-BF8B-827C522C3CF5}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{72F13173-5B6E-45FB-A411-07AB3803657F}"/>
-    <hyperlink ref="F9" r:id="rId9" xr:uid="{8B5A7170-97ED-4453-8811-AB72696E0E3E}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{C02AC2B0-A62E-40D0-B820-88A3E8C1352A}"/>
-    <hyperlink ref="F14" r:id="rId11" location="colour" xr:uid="{407702EF-B60F-4D51-A8BF-F9D7475063DC}"/>
-    <hyperlink ref="F15" r:id="rId12" xr:uid="{CE4F3EA3-19B3-432B-855D-D177FF748031}"/>
-    <hyperlink ref="F16" r:id="rId13" xr:uid="{8EDA3877-D52A-4961-9E41-2148192B90EE}"/>
-    <hyperlink ref="F17" r:id="rId14" xr:uid="{8B7DEDB9-7B42-4E6E-AEBA-5C415EEC6169}"/>
-    <hyperlink ref="F18" r:id="rId15" location=":~:text=Pour%20ins%C3%A9rer%20un%20lien%2C%20on,html%22%3E%20." xr:uid="{2314C435-867B-46B6-A25A-D3B6AC27A920}"/>
-    <hyperlink ref="F19" r:id="rId16" location="les_%C3%A9quivalents_textuels" xr:uid="{6BEC173A-E38D-4A3A-A324-B271C51A2B39}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{20D34EB1-A4CA-49B7-AC83-460E8F362092}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{0C8892E4-C7DD-402F-91B9-F3A41206AAE7}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{EAE33832-7AF5-471E-8475-94CA27DDDCE9}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{19070C6B-134A-41E0-AEB1-93D328F3E482}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{B91AC4F0-6C0C-452E-8F63-7EBB8ABAB446}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{7F55248D-22F5-4A61-BF8B-827C522C3CF5}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{72F13173-5B6E-45FB-A411-07AB3803657F}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{8B5A7170-97ED-4453-8811-AB72696E0E3E}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{C02AC2B0-A62E-40D0-B820-88A3E8C1352A}"/>
+    <hyperlink ref="F14" r:id="rId10" location="colour" xr:uid="{407702EF-B60F-4D51-A8BF-F9D7475063DC}"/>
+    <hyperlink ref="F15" r:id="rId11" xr:uid="{CE4F3EA3-19B3-432B-855D-D177FF748031}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{8EDA3877-D52A-4961-9E41-2148192B90EE}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{8B7DEDB9-7B42-4E6E-AEBA-5C415EEC6169}"/>
+    <hyperlink ref="F18" r:id="rId14" location=":~:text=Pour%20ins%C3%A9rer%20un%20lien%2C%20on,html%22%3E%20." xr:uid="{2314C435-867B-46B6-A25A-D3B6AC27A920}"/>
+    <hyperlink ref="F19" r:id="rId15" location="les_%C3%A9quivalents_textuels" xr:uid="{6BEC173A-E38D-4A3A-A324-B271C51A2B39}"/>
+    <hyperlink ref="F4" r:id="rId16" xr:uid="{954629C9-6430-4538-A5D9-85EDD8141DFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId17"/>

--- a/audit-SEO.xlsx
+++ b/audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lepla\OneDrive\Bureau\p4_leplat_Franck-olivier\la_chouette_agence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C37B19A-3940-4E18-88F7-E6C2A7FB8FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC672DF-2D26-44B6-BBDE-0472DCF9967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,10 +100,6 @@
  elle peut contenir un maximum de 230 caractères</t>
   </si>
   <si>
-    <t>Utiliser les formats JPEG PNG et GIF
-l'Ideal serai que la taille de l'image soit la même que sont contenant.</t>
-  </si>
-  <si>
     <t>Erreur de l'attribut "Lang"</t>
   </si>
   <si>
@@ -311,6 +307,10 @@
     <t>Le texte contenue dans une image ne peut etre
 lu par le lecteur de page ni par les 
 moteurs de recherches</t>
+  </si>
+  <si>
+    <t>Utiliser les formats JPEG PNG 
+l'Ideal serai que la taille de l'image soit la même que sont contenant.</t>
   </si>
 </sst>
 </file>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:UZ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -735,7 +735,7 @@
     </row>
     <row r="2" spans="1:572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -767,16 +767,16 @@
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:572" ht="72" customHeight="1" x14ac:dyDescent="0.25">
@@ -811,10 +811,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>9</v>
@@ -832,19 +832,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -856,19 +856,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -880,19 +880,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -904,19 +904,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1502,19 +1502,19 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:572" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,19 +1522,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1546,19 +1546,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1570,13 +1570,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>9</v>
@@ -1594,19 +1594,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1614,19 +1614,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="105" x14ac:dyDescent="0.25">
@@ -1634,19 +1634,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -1654,19 +1654,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
